--- a/dataanalysis/data/predictions/1600/07311509_1512.xlsx
+++ b/dataanalysis/data/predictions/1600/07311509_1512.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="204">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-31</t>
   </si>
   <si>
@@ -623,12 +626,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -986,13 +983,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AI105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,19 +1092,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>5.77</v>
@@ -1125,7 +1125,7 @@
         <v>93306.64</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K2">
         <v>13</v>
@@ -1166,8 +1166,23 @@
       <c r="W2">
         <v>-0.32</v>
       </c>
+      <c r="X2">
+        <v>-5.81</v>
+      </c>
+      <c r="Y2">
+        <v>5.8</v>
+      </c>
+      <c r="Z2">
+        <v>2.11</v>
+      </c>
       <c r="AC2" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1175,22 +1190,25 @@
       <c r="AG2">
         <v>4.425896167755127</v>
       </c>
-      <c r="AH2" t="s">
-        <v>203</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300009</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>20.02</v>
@@ -1208,7 +1226,7 @@
         <v>383390.49</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1249,8 +1267,23 @@
       <c r="W3">
         <v>2.8</v>
       </c>
+      <c r="X3">
+        <v>-1.73</v>
+      </c>
+      <c r="Y3">
+        <v>12.7</v>
+      </c>
+      <c r="Z3">
+        <v>4.87</v>
+      </c>
       <c r="AC3" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1258,22 +1291,25 @@
       <c r="AG3">
         <v>14.44281959533691</v>
       </c>
-      <c r="AH3" t="s">
-        <v>204</v>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>1.77</v>
@@ -1291,7 +1327,7 @@
         <v>86491.17</v>
       </c>
       <c r="J4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -1332,8 +1368,23 @@
       <c r="W4">
         <v>0.17</v>
       </c>
+      <c r="X4">
+        <v>-9.34</v>
+      </c>
+      <c r="Y4">
+        <v>6.18</v>
+      </c>
+      <c r="Z4">
+        <v>-2.22</v>
+      </c>
       <c r="AC4" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1341,22 +1392,25 @@
       <c r="AG4">
         <v>3.928804636001587</v>
       </c>
-      <c r="AH4" t="s">
-        <v>203</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-1.97</v>
@@ -1374,7 +1428,7 @@
         <v>40358.26</v>
       </c>
       <c r="J5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K5">
         <v>15</v>
@@ -1415,8 +1469,23 @@
       <c r="W5">
         <v>-0.99</v>
       </c>
+      <c r="X5">
+        <v>-2.35</v>
+      </c>
+      <c r="Y5">
+        <v>5.97</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
       <c r="AC5" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1424,22 +1493,25 @@
       <c r="AG5">
         <v>4.34537410736084</v>
       </c>
-      <c r="AH5" t="s">
-        <v>203</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300086</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-1.06</v>
@@ -1457,7 +1529,7 @@
         <v>113693.57</v>
       </c>
       <c r="J6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K6">
         <v>8</v>
@@ -1498,8 +1570,23 @@
       <c r="W6">
         <v>-0.1</v>
       </c>
+      <c r="X6">
+        <v>-7.15</v>
+      </c>
+      <c r="Y6">
+        <v>8.68</v>
+      </c>
+      <c r="Z6">
+        <v>3.46</v>
+      </c>
       <c r="AC6" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1507,22 +1594,25 @@
       <c r="AG6">
         <v>4.290562152862549</v>
       </c>
-      <c r="AH6" t="s">
-        <v>203</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300095</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>1.94</v>
@@ -1540,7 +1630,7 @@
         <v>57431.93</v>
       </c>
       <c r="J7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1581,8 +1671,23 @@
       <c r="W7">
         <v>1.41</v>
       </c>
+      <c r="X7">
+        <v>-3.98</v>
+      </c>
+      <c r="Y7">
+        <v>11.03</v>
+      </c>
+      <c r="Z7">
+        <v>-0.27</v>
+      </c>
       <c r="AC7" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1590,22 +1695,25 @@
       <c r="AG7">
         <v>7.445305347442627</v>
       </c>
-      <c r="AH7" t="s">
-        <v>203</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300149</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>3.56</v>
@@ -1623,7 +1731,7 @@
         <v>186900.21</v>
       </c>
       <c r="J8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1664,8 +1772,23 @@
       <c r="W8">
         <v>0.9399999999999999</v>
       </c>
+      <c r="X8">
+        <v>-6.6</v>
+      </c>
+      <c r="Y8">
+        <v>14.66</v>
+      </c>
+      <c r="Z8">
+        <v>2.95</v>
+      </c>
       <c r="AC8" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1673,22 +1796,25 @@
       <c r="AG8">
         <v>7.936923980712891</v>
       </c>
-      <c r="AH8" t="s">
-        <v>204</v>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300158</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>16.64</v>
@@ -1706,7 +1832,7 @@
         <v>217324.65</v>
       </c>
       <c r="J9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -1747,8 +1873,23 @@
       <c r="W9">
         <v>0.51</v>
       </c>
+      <c r="X9">
+        <v>-5.45</v>
+      </c>
+      <c r="Y9">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>-1.74</v>
+      </c>
       <c r="AC9" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1756,22 +1897,25 @@
       <c r="AG9">
         <v>4.879577159881592</v>
       </c>
-      <c r="AH9" t="s">
-        <v>203</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300188</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-5.13</v>
@@ -1789,7 +1933,7 @@
         <v>123674.52</v>
       </c>
       <c r="J10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1830,8 +1974,23 @@
       <c r="W10">
         <v>-1.06</v>
       </c>
+      <c r="X10">
+        <v>5.94</v>
+      </c>
+      <c r="Y10">
+        <v>18.27</v>
+      </c>
+      <c r="Z10">
+        <v>8.49</v>
+      </c>
       <c r="AC10" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1839,22 +1998,25 @@
       <c r="AG10">
         <v>7.323453903198242</v>
       </c>
-      <c r="AH10" t="s">
-        <v>203</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300199</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>7.02</v>
@@ -1872,7 +2034,7 @@
         <v>327798.84</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1913,8 +2075,23 @@
       <c r="W11">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X11">
+        <v>-0.78</v>
+      </c>
+      <c r="Y11">
+        <v>21.84</v>
+      </c>
+      <c r="Z11">
+        <v>6.9</v>
+      </c>
       <c r="AC11" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1922,22 +2099,25 @@
       <c r="AG11">
         <v>2.922996997833252</v>
       </c>
-      <c r="AH11" t="s">
-        <v>203</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300224</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-1.73</v>
@@ -1955,7 +2135,7 @@
         <v>52695.27</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K12">
         <v>6</v>
@@ -1996,8 +2176,23 @@
       <c r="W12">
         <v>-0.3</v>
       </c>
+      <c r="X12">
+        <v>-2.14</v>
+      </c>
+      <c r="Y12">
+        <v>15.87</v>
+      </c>
+      <c r="Z12">
+        <v>0.06</v>
+      </c>
       <c r="AC12" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2005,22 +2200,25 @@
       <c r="AG12">
         <v>1.72116219997406</v>
       </c>
-      <c r="AH12" t="s">
-        <v>203</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300254</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>7.09</v>
@@ -2038,7 +2236,7 @@
         <v>93723.73</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K13">
         <v>7</v>
@@ -2079,8 +2277,23 @@
       <c r="W13">
         <v>-1.08</v>
       </c>
+      <c r="X13">
+        <v>-3.38</v>
+      </c>
+      <c r="Y13">
+        <v>14.23</v>
+      </c>
+      <c r="Z13">
+        <v>4.63</v>
+      </c>
       <c r="AC13" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2088,22 +2301,25 @@
       <c r="AG13">
         <v>6.397626399993896</v>
       </c>
-      <c r="AH13" t="s">
-        <v>203</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300261</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>12.09</v>
@@ -2121,7 +2337,7 @@
         <v>121613.82</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2162,8 +2378,23 @@
       <c r="W14">
         <v>1.84</v>
       </c>
+      <c r="X14">
+        <v>-1.82</v>
+      </c>
+      <c r="Y14">
+        <v>9.1</v>
+      </c>
+      <c r="Z14">
+        <v>3.29</v>
+      </c>
       <c r="AC14" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2171,22 +2402,25 @@
       <c r="AG14">
         <v>3.250826835632324</v>
       </c>
-      <c r="AH14" t="s">
-        <v>203</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300267</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>4.92</v>
@@ -2204,7 +2438,7 @@
         <v>134579.39</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -2245,8 +2479,23 @@
       <c r="W15">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X15">
+        <v>-9.59</v>
+      </c>
+      <c r="Y15">
+        <v>4.78</v>
+      </c>
+      <c r="Z15">
+        <v>1.92</v>
+      </c>
       <c r="AC15" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2254,22 +2503,25 @@
       <c r="AG15">
         <v>0.1082863733172417</v>
       </c>
-      <c r="AH15" t="s">
-        <v>203</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300322</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>4.56</v>
@@ -2287,7 +2539,7 @@
         <v>330564.35</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -2328,8 +2580,23 @@
       <c r="W16">
         <v>0.49</v>
       </c>
+      <c r="X16">
+        <v>-3.76</v>
+      </c>
+      <c r="Y16">
+        <v>20.3</v>
+      </c>
+      <c r="Z16">
+        <v>1.86</v>
+      </c>
       <c r="AC16" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2337,22 +2604,25 @@
       <c r="AG16">
         <v>6.501240253448486</v>
       </c>
-      <c r="AH16" t="s">
-        <v>203</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300363</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-2.06</v>
@@ -2370,7 +2640,7 @@
         <v>103294.44</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K17">
         <v>7</v>
@@ -2411,8 +2681,23 @@
       <c r="W17">
         <v>-0.97</v>
       </c>
+      <c r="X17">
+        <v>-1.13</v>
+      </c>
+      <c r="Y17">
+        <v>24.35</v>
+      </c>
+      <c r="Z17">
+        <v>2.35</v>
+      </c>
       <c r="AC17" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2420,22 +2705,25 @@
       <c r="AG17">
         <v>4.157574653625488</v>
       </c>
-      <c r="AH17" t="s">
-        <v>203</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300378</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>6.98</v>
@@ -2453,7 +2741,7 @@
         <v>210523.25</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -2494,8 +2782,23 @@
       <c r="W18">
         <v>0.93</v>
       </c>
+      <c r="X18">
+        <v>16.06</v>
+      </c>
+      <c r="Y18">
+        <v>63.06</v>
+      </c>
+      <c r="Z18">
+        <v>20</v>
+      </c>
       <c r="AC18" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2503,22 +2806,25 @@
       <c r="AG18">
         <v>1.750203013420105</v>
       </c>
-      <c r="AH18" t="s">
-        <v>203</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300404</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0.8</v>
@@ -2536,7 +2842,7 @@
         <v>47280.51</v>
       </c>
       <c r="J19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2577,8 +2883,23 @@
       <c r="W19">
         <v>-0.14</v>
       </c>
+      <c r="X19">
+        <v>-2.39</v>
+      </c>
+      <c r="Y19">
+        <v>11.49</v>
+      </c>
+      <c r="Z19">
+        <v>1.77</v>
+      </c>
       <c r="AC19" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2586,22 +2907,25 @@
       <c r="AG19">
         <v>2.764118194580078</v>
       </c>
-      <c r="AH19" t="s">
-        <v>203</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300410</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-0.12</v>
@@ -2619,7 +2943,7 @@
         <v>77733.69</v>
       </c>
       <c r="J20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2660,8 +2984,23 @@
       <c r="W20">
         <v>-0.71</v>
       </c>
+      <c r="X20">
+        <v>4.12</v>
+      </c>
+      <c r="Y20">
+        <v>9.43</v>
+      </c>
+      <c r="Z20">
+        <v>10.94</v>
+      </c>
       <c r="AC20" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2669,22 +3008,25 @@
       <c r="AG20">
         <v>3.912662029266357</v>
       </c>
-      <c r="AH20" t="s">
-        <v>203</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300414</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-3.36</v>
@@ -2702,7 +3044,7 @@
         <v>87509.89</v>
       </c>
       <c r="J21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K21">
         <v>14</v>
@@ -2743,8 +3085,23 @@
       <c r="W21">
         <v>-0.42</v>
       </c>
+      <c r="X21">
+        <v>3.95</v>
+      </c>
+      <c r="Y21">
+        <v>16.15</v>
+      </c>
+      <c r="Z21">
+        <v>8.029999999999999</v>
+      </c>
       <c r="AC21" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2752,22 +3109,25 @@
       <c r="AG21">
         <v>0.8104292154312134</v>
       </c>
-      <c r="AH21" t="s">
-        <v>203</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300434</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-2.67</v>
@@ -2785,7 +3145,7 @@
         <v>57569.25</v>
       </c>
       <c r="J22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2826,8 +3186,23 @@
       <c r="W22">
         <v>-0.35</v>
       </c>
+      <c r="X22">
+        <v>-0.97</v>
+      </c>
+      <c r="Y22">
+        <v>11.62</v>
+      </c>
+      <c r="Z22">
+        <v>2.92</v>
+      </c>
       <c r="AC22" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2835,22 +3210,25 @@
       <c r="AG22">
         <v>2.818714141845703</v>
       </c>
-      <c r="AH22" t="s">
-        <v>203</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300436</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>18.04</v>
@@ -2868,7 +3246,7 @@
         <v>241487.13</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K23">
         <v>21</v>
@@ -2909,8 +3287,23 @@
       <c r="W23">
         <v>-0.51</v>
       </c>
+      <c r="X23">
+        <v>-10.66</v>
+      </c>
+      <c r="Y23">
+        <v>115.13</v>
+      </c>
+      <c r="Z23">
+        <v>0.55</v>
+      </c>
       <c r="AC23" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -2918,22 +3311,25 @@
       <c r="AG23">
         <v>3.05125093460083</v>
       </c>
-      <c r="AH23" t="s">
-        <v>203</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300452</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>1.6</v>
@@ -2951,7 +3347,7 @@
         <v>38184.12</v>
       </c>
       <c r="J24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2992,8 +3388,23 @@
       <c r="W24">
         <v>0.52</v>
       </c>
+      <c r="X24">
+        <v>-2.32</v>
+      </c>
+      <c r="Y24">
+        <v>15.2</v>
+      </c>
+      <c r="Z24">
+        <v>3.75</v>
+      </c>
       <c r="AC24" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3001,22 +3412,25 @@
       <c r="AG24">
         <v>2.555388450622559</v>
       </c>
-      <c r="AH24" t="s">
-        <v>203</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300467</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-0.74</v>
@@ -3034,7 +3448,7 @@
         <v>36423.32</v>
       </c>
       <c r="J25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3075,8 +3489,23 @@
       <c r="W25">
         <v>-0.4</v>
       </c>
+      <c r="X25">
+        <v>-1.08</v>
+      </c>
+      <c r="Y25">
+        <v>24.1</v>
+      </c>
+      <c r="Z25">
+        <v>0.29</v>
+      </c>
       <c r="AC25" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3084,22 +3513,25 @@
       <c r="AG25">
         <v>2.708186626434326</v>
       </c>
-      <c r="AH25" t="s">
-        <v>203</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300469</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>0.19</v>
@@ -3117,7 +3549,7 @@
         <v>69864.11</v>
       </c>
       <c r="J26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K26">
         <v>13</v>
@@ -3158,8 +3590,23 @@
       <c r="W26">
         <v>-0.26</v>
       </c>
+      <c r="X26">
+        <v>-4.98</v>
+      </c>
+      <c r="Y26">
+        <v>47.93</v>
+      </c>
+      <c r="Z26">
+        <v>1.1</v>
+      </c>
       <c r="AC26" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3167,22 +3614,25 @@
       <c r="AG26">
         <v>1.254477620124817</v>
       </c>
-      <c r="AH26" t="s">
-        <v>203</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300502</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-0.6</v>
@@ -3200,7 +3650,7 @@
         <v>1460451.84</v>
       </c>
       <c r="J27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K27">
         <v>27</v>
@@ -3241,8 +3691,23 @@
       <c r="W27">
         <v>-0.27</v>
       </c>
+      <c r="X27">
+        <v>-3.22</v>
+      </c>
+      <c r="Y27">
+        <v>191.6</v>
+      </c>
+      <c r="Z27">
+        <v>1.26</v>
+      </c>
       <c r="AC27" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3250,22 +3715,25 @@
       <c r="AG27">
         <v>3.978578567504883</v>
       </c>
-      <c r="AH27" t="s">
-        <v>203</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300505</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>0.1</v>
@@ -3283,7 +3751,7 @@
         <v>50910.39</v>
       </c>
       <c r="J28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3324,8 +3792,23 @@
       <c r="W28">
         <v>0.11</v>
       </c>
+      <c r="X28">
+        <v>3.9</v>
+      </c>
+      <c r="Y28">
+        <v>22.66</v>
+      </c>
+      <c r="Z28">
+        <v>8.99</v>
+      </c>
       <c r="AC28" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3333,22 +3816,25 @@
       <c r="AG28">
         <v>0.3741870224475861</v>
       </c>
-      <c r="AH28" t="s">
-        <v>203</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300528</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-8.289999999999999</v>
@@ -3366,7 +3852,7 @@
         <v>212192.56</v>
       </c>
       <c r="J29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K29">
         <v>7</v>
@@ -3407,8 +3893,23 @@
       <c r="W29">
         <v>-1.7</v>
       </c>
+      <c r="X29">
+        <v>-8.050000000000001</v>
+      </c>
+      <c r="Y29">
+        <v>24.6</v>
+      </c>
+      <c r="Z29">
+        <v>5.94</v>
+      </c>
       <c r="AC29" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3416,22 +3917,25 @@
       <c r="AG29">
         <v>0.06831147521734238</v>
       </c>
-      <c r="AH29" t="s">
-        <v>203</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300533</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-4.84</v>
@@ -3449,7 +3953,7 @@
         <v>73650.67999999999</v>
       </c>
       <c r="J30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K30">
         <v>27</v>
@@ -3490,8 +3994,23 @@
       <c r="W30">
         <v>-1.26</v>
       </c>
+      <c r="X30">
+        <v>-3.54</v>
+      </c>
+      <c r="Y30">
+        <v>36.38</v>
+      </c>
+      <c r="Z30">
+        <v>0.61</v>
+      </c>
       <c r="AC30" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -3499,22 +4018,25 @@
       <c r="AG30">
         <v>5.292207717895508</v>
       </c>
-      <c r="AH30" t="s">
-        <v>203</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300537</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-3.12</v>
@@ -3532,7 +4054,7 @@
         <v>39798.59</v>
       </c>
       <c r="J31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3573,8 +4095,23 @@
       <c r="W31">
         <v>-1.16</v>
       </c>
+      <c r="X31">
+        <v>-1.2</v>
+      </c>
+      <c r="Y31">
+        <v>25.94</v>
+      </c>
+      <c r="Z31">
+        <v>0.66</v>
+      </c>
       <c r="AC31" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3582,22 +4119,25 @@
       <c r="AG31">
         <v>2.621258020401001</v>
       </c>
-      <c r="AH31" t="s">
-        <v>203</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300539</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-2.03</v>
@@ -3615,7 +4155,7 @@
         <v>75421.52</v>
       </c>
       <c r="J32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K32">
         <v>6</v>
@@ -3656,8 +4196,23 @@
       <c r="W32">
         <v>0.5</v>
       </c>
+      <c r="X32">
+        <v>-15</v>
+      </c>
+      <c r="Y32">
+        <v>27.46</v>
+      </c>
+      <c r="Z32">
+        <v>-1.72</v>
+      </c>
       <c r="AC32" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3665,22 +4220,25 @@
       <c r="AG32">
         <v>8.773131370544434</v>
       </c>
-      <c r="AH32" t="s">
-        <v>203</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300548</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-5.2</v>
@@ -3698,7 +4256,7 @@
         <v>304693.58</v>
       </c>
       <c r="J33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K33">
         <v>13</v>
@@ -3739,8 +4297,23 @@
       <c r="W33">
         <v>-0.25</v>
       </c>
+      <c r="X33">
+        <v>-1.68</v>
+      </c>
+      <c r="Y33">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="Z33">
+        <v>1.3</v>
+      </c>
       <c r="AC33" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3748,22 +4321,25 @@
       <c r="AG33">
         <v>3.427148580551147</v>
       </c>
-      <c r="AH33" t="s">
-        <v>203</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300581</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>2.58</v>
@@ -3781,7 +4357,7 @@
         <v>159984.52</v>
       </c>
       <c r="J34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3822,8 +4398,23 @@
       <c r="W34">
         <v>0.13</v>
       </c>
+      <c r="X34">
+        <v>-5.79</v>
+      </c>
+      <c r="Y34">
+        <v>22.65</v>
+      </c>
+      <c r="Z34">
+        <v>0.04</v>
+      </c>
       <c r="AC34" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>1</v>
@@ -3831,22 +4422,25 @@
       <c r="AG34">
         <v>4.938295364379883</v>
       </c>
-      <c r="AH34" t="s">
-        <v>203</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300588</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>3.66</v>
@@ -3864,7 +4458,7 @@
         <v>65188.42</v>
       </c>
       <c r="J35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3905,8 +4499,23 @@
       <c r="W35">
         <v>-0.13</v>
       </c>
+      <c r="X35">
+        <v>-0.87</v>
+      </c>
+      <c r="Y35">
+        <v>20.7</v>
+      </c>
+      <c r="Z35">
+        <v>5.88</v>
+      </c>
       <c r="AC35" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>1</v>
@@ -3914,22 +4523,25 @@
       <c r="AG35">
         <v>19.5644474029541</v>
       </c>
-      <c r="AH35" t="s">
-        <v>203</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300591</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>0.93</v>
@@ -3947,7 +4559,7 @@
         <v>104018.12</v>
       </c>
       <c r="J36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3988,8 +4600,23 @@
       <c r="W36">
         <v>0.76</v>
       </c>
+      <c r="X36">
+        <v>-6.11</v>
+      </c>
+      <c r="Y36">
+        <v>11.97</v>
+      </c>
+      <c r="Z36">
+        <v>0.25</v>
+      </c>
       <c r="AC36" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3997,22 +4624,25 @@
       <c r="AG36">
         <v>1.376360058784485</v>
       </c>
-      <c r="AH36" t="s">
-        <v>203</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300600</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-5.71</v>
@@ -4030,7 +4660,7 @@
         <v>97200.47</v>
       </c>
       <c r="J37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -4071,8 +4701,23 @@
       <c r="W37">
         <v>-2.4</v>
       </c>
+      <c r="X37">
+        <v>-4.12</v>
+      </c>
+      <c r="Y37">
+        <v>17.1</v>
+      </c>
+      <c r="Z37">
+        <v>0.59</v>
+      </c>
       <c r="AC37" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4080,22 +4725,25 @@
       <c r="AG37">
         <v>0.8874903917312622</v>
       </c>
-      <c r="AH37" t="s">
-        <v>203</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300609</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>3.59</v>
@@ -4113,7 +4761,7 @@
         <v>47926.43</v>
       </c>
       <c r="J38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -4154,8 +4802,23 @@
       <c r="W38">
         <v>0.16</v>
       </c>
+      <c r="X38">
+        <v>0.5</v>
+      </c>
+      <c r="Y38">
+        <v>42.52</v>
+      </c>
+      <c r="Z38">
+        <v>1.63</v>
+      </c>
       <c r="AC38" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4163,22 +4826,25 @@
       <c r="AG38">
         <v>3.232709646224976</v>
       </c>
-      <c r="AH38" t="s">
-        <v>203</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300631</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-1.95</v>
@@ -4196,7 +4862,7 @@
         <v>25336.42</v>
       </c>
       <c r="J39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K39">
         <v>14</v>
@@ -4237,8 +4903,23 @@
       <c r="W39">
         <v>-0.38</v>
       </c>
+      <c r="X39">
+        <v>1.08</v>
+      </c>
+      <c r="Y39">
+        <v>31.87</v>
+      </c>
+      <c r="Z39">
+        <v>3.98</v>
+      </c>
       <c r="AC39" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4246,22 +4927,25 @@
       <c r="AG39">
         <v>4.740293979644775</v>
       </c>
-      <c r="AH39" t="s">
-        <v>203</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300644</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-1.07</v>
@@ -4279,7 +4963,7 @@
         <v>28789.49</v>
       </c>
       <c r="J40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K40">
         <v>11</v>
@@ -4320,8 +5004,23 @@
       <c r="W40">
         <v>-0.7</v>
       </c>
+      <c r="X40">
+        <v>-1.91</v>
+      </c>
+      <c r="Y40">
+        <v>32.82</v>
+      </c>
+      <c r="Z40">
+        <v>0.98</v>
+      </c>
       <c r="AC40" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4329,22 +5028,25 @@
       <c r="AG40">
         <v>3.77522873878479</v>
       </c>
-      <c r="AH40" t="s">
-        <v>203</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300648</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>2.45</v>
@@ -4362,7 +5064,7 @@
         <v>37917.08</v>
       </c>
       <c r="J41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4403,8 +5105,23 @@
       <c r="W41">
         <v>0.24</v>
       </c>
+      <c r="X41">
+        <v>0.77</v>
+      </c>
+      <c r="Y41">
+        <v>45.3</v>
+      </c>
+      <c r="Z41">
+        <v>5.1</v>
+      </c>
       <c r="AC41" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4412,22 +5129,25 @@
       <c r="AG41">
         <v>5.340592861175537</v>
       </c>
-      <c r="AH41" t="s">
-        <v>203</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300683</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>8.369999999999999</v>
@@ -4445,7 +5165,7 @@
         <v>101223.39</v>
       </c>
       <c r="J42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K42">
         <v>9</v>
@@ -4486,8 +5206,23 @@
       <c r="W42">
         <v>0.41</v>
       </c>
+      <c r="X42">
+        <v>5.73</v>
+      </c>
+      <c r="Y42">
+        <v>59.62</v>
+      </c>
+      <c r="Z42">
+        <v>5.84</v>
+      </c>
       <c r="AC42" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4495,22 +5230,25 @@
       <c r="AG42">
         <v>4.982522964477539</v>
       </c>
-      <c r="AH42" t="s">
-        <v>203</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300684</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>0.5</v>
@@ -4528,7 +5266,7 @@
         <v>97659.00999999999</v>
       </c>
       <c r="J43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -4569,8 +5307,23 @@
       <c r="W43">
         <v>0.78</v>
       </c>
+      <c r="X43">
+        <v>0.47</v>
+      </c>
+      <c r="Y43">
+        <v>31.88</v>
+      </c>
+      <c r="Z43">
+        <v>6.23</v>
+      </c>
       <c r="AC43" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4578,22 +5331,25 @@
       <c r="AG43">
         <v>1.214888453483582</v>
       </c>
-      <c r="AH43" t="s">
-        <v>203</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300706</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-4.53</v>
@@ -4611,7 +5367,7 @@
         <v>129636.13</v>
       </c>
       <c r="J44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K44">
         <v>5</v>
@@ -4652,8 +5408,23 @@
       <c r="W44">
         <v>-1.7</v>
       </c>
+      <c r="X44">
+        <v>-8.52</v>
+      </c>
+      <c r="Y44">
+        <v>36.79</v>
+      </c>
+      <c r="Z44">
+        <v>-0.16</v>
+      </c>
       <c r="AC44" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4661,22 +5432,25 @@
       <c r="AG44">
         <v>1.092633605003357</v>
       </c>
-      <c r="AH44" t="s">
-        <v>203</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300722</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>0.28</v>
@@ -4694,7 +5468,7 @@
         <v>59472.88</v>
       </c>
       <c r="J45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K45">
         <v>9</v>
@@ -4735,8 +5509,23 @@
       <c r="W45">
         <v>-0.2</v>
       </c>
+      <c r="X45">
+        <v>-5.33</v>
+      </c>
+      <c r="Y45">
+        <v>39.19</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
       <c r="AC45" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4744,22 +5533,25 @@
       <c r="AG45">
         <v>1.727423429489136</v>
       </c>
-      <c r="AH45" t="s">
-        <v>203</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300725</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-0.08</v>
@@ -4777,7 +5569,7 @@
         <v>137057.64</v>
       </c>
       <c r="J46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4818,8 +5610,23 @@
       <c r="W46">
         <v>0.31</v>
       </c>
+      <c r="X46">
+        <v>-4.08</v>
+      </c>
+      <c r="Y46">
+        <v>50.4</v>
+      </c>
+      <c r="Z46">
+        <v>2.31</v>
+      </c>
       <c r="AC46" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4827,22 +5634,25 @@
       <c r="AG46">
         <v>1.970175743103027</v>
       </c>
-      <c r="AH46" t="s">
-        <v>203</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300732</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>7.91</v>
@@ -4860,7 +5670,7 @@
         <v>134678</v>
       </c>
       <c r="J47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4901,8 +5711,23 @@
       <c r="W47">
         <v>-0.86</v>
       </c>
+      <c r="X47">
+        <v>-5.76</v>
+      </c>
+      <c r="Y47">
+        <v>11.78</v>
+      </c>
+      <c r="Z47">
+        <v>2.79</v>
+      </c>
       <c r="AC47" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4910,22 +5735,25 @@
       <c r="AG47">
         <v>1.033414721488953</v>
       </c>
-      <c r="AH47" t="s">
-        <v>203</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300747</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-0.9</v>
@@ -4943,7 +5771,7 @@
         <v>93549.06</v>
       </c>
       <c r="J48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K48">
         <v>11</v>
@@ -4984,8 +5812,23 @@
       <c r="W48">
         <v>-0.18</v>
       </c>
+      <c r="X48">
+        <v>0.1</v>
+      </c>
+      <c r="Y48">
+        <v>31.06</v>
+      </c>
+      <c r="Z48">
+        <v>4.58</v>
+      </c>
       <c r="AC48" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4993,22 +5836,25 @@
       <c r="AG48">
         <v>3.326727628707886</v>
       </c>
-      <c r="AH48" t="s">
-        <v>203</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300767</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-9.49</v>
@@ -5026,7 +5872,7 @@
         <v>54129.56</v>
       </c>
       <c r="J49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -5067,8 +5913,23 @@
       <c r="W49">
         <v>-1.58</v>
       </c>
+      <c r="X49">
+        <v>0.95</v>
+      </c>
+      <c r="Y49">
+        <v>14.05</v>
+      </c>
+      <c r="Z49">
+        <v>2.26</v>
+      </c>
       <c r="AC49" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5076,22 +5937,25 @@
       <c r="AG49">
         <v>3.037311553955078</v>
       </c>
-      <c r="AH49" t="s">
-        <v>203</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300803</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-3.5</v>
@@ -5109,7 +5973,7 @@
         <v>389320.19</v>
       </c>
       <c r="J50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K50">
         <v>25</v>
@@ -5150,8 +6014,23 @@
       <c r="W50">
         <v>-1.08</v>
       </c>
+      <c r="X50">
+        <v>-0.83</v>
+      </c>
+      <c r="Y50">
+        <v>90.26000000000001</v>
+      </c>
+      <c r="Z50">
+        <v>1.68</v>
+      </c>
       <c r="AC50" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5159,22 +6038,25 @@
       <c r="AG50">
         <v>2.741187572479248</v>
       </c>
-      <c r="AH50" t="s">
-        <v>203</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300835</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>0.92</v>
@@ -5192,7 +6074,7 @@
         <v>65459.19</v>
       </c>
       <c r="J51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K51">
         <v>8</v>
@@ -5233,8 +6115,23 @@
       <c r="W51">
         <v>-0.33</v>
       </c>
+      <c r="X51">
+        <v>-2.42</v>
+      </c>
+      <c r="Y51">
+        <v>57.8</v>
+      </c>
+      <c r="Z51">
+        <v>-0.05</v>
+      </c>
       <c r="AC51" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5242,22 +6139,25 @@
       <c r="AG51">
         <v>2.495887041091919</v>
       </c>
-      <c r="AH51" t="s">
-        <v>203</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300841</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>5.76</v>
@@ -5275,7 +6175,7 @@
         <v>86722.99000000001</v>
       </c>
       <c r="J52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5316,8 +6216,23 @@
       <c r="W52">
         <v>0.36</v>
       </c>
+      <c r="X52">
+        <v>2.52</v>
+      </c>
+      <c r="Y52">
+        <v>82.08</v>
+      </c>
+      <c r="Z52">
+        <v>5.95</v>
+      </c>
       <c r="AC52" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5325,22 +6240,25 @@
       <c r="AG52">
         <v>5.366790294647217</v>
       </c>
-      <c r="AH52" t="s">
-        <v>203</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300869</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>1.07</v>
@@ -5358,7 +6276,7 @@
         <v>86464.78</v>
       </c>
       <c r="J53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K53">
         <v>4</v>
@@ -5399,8 +6317,23 @@
       <c r="W53">
         <v>-0.06</v>
       </c>
+      <c r="X53">
+        <v>-4.35</v>
+      </c>
+      <c r="Y53">
+        <v>20.5</v>
+      </c>
+      <c r="Z53">
+        <v>-0.97</v>
+      </c>
       <c r="AC53" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5408,22 +6341,25 @@
       <c r="AG53">
         <v>1.21007776260376</v>
       </c>
-      <c r="AH53" t="s">
-        <v>203</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300872</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-1.97</v>
@@ -5441,7 +6377,7 @@
         <v>109053.3</v>
       </c>
       <c r="J54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K54">
         <v>6</v>
@@ -5482,8 +6418,23 @@
       <c r="W54">
         <v>-0.7</v>
       </c>
+      <c r="X54">
+        <v>-4.1</v>
+      </c>
+      <c r="Y54">
+        <v>24.84</v>
+      </c>
+      <c r="Z54">
+        <v>-0.08</v>
+      </c>
       <c r="AC54" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5491,22 +6442,25 @@
       <c r="AG54">
         <v>6.597172737121582</v>
       </c>
-      <c r="AH54" t="s">
-        <v>203</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300877</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-0.92</v>
@@ -5524,7 +6478,7 @@
         <v>48506.95</v>
       </c>
       <c r="J55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K55">
         <v>5</v>
@@ -5565,8 +6519,23 @@
       <c r="W55">
         <v>0.43</v>
       </c>
+      <c r="X55">
+        <v>0.73</v>
+      </c>
+      <c r="Y55">
+        <v>32.77</v>
+      </c>
+      <c r="Z55">
+        <v>8.08</v>
+      </c>
       <c r="AC55" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5574,22 +6543,25 @@
       <c r="AG55">
         <v>7.219313621520996</v>
       </c>
-      <c r="AH55" t="s">
-        <v>203</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300885</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-0.99</v>
@@ -5607,7 +6579,7 @@
         <v>113288.05</v>
       </c>
       <c r="J56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K56">
         <v>7</v>
@@ -5648,8 +6620,23 @@
       <c r="W56">
         <v>2.05</v>
       </c>
+      <c r="X56">
+        <v>-5.23</v>
+      </c>
+      <c r="Y56">
+        <v>23.12</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
       <c r="AC56" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -5657,22 +6644,25 @@
       <c r="AG56">
         <v>8.920369148254395</v>
       </c>
-      <c r="AH56" t="s">
-        <v>204</v>
+      <c r="AH56">
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300903</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-1.08</v>
@@ -5690,7 +6680,7 @@
         <v>75801.48</v>
       </c>
       <c r="J57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5731,8 +6721,23 @@
       <c r="W57">
         <v>-0.14</v>
       </c>
+      <c r="X57">
+        <v>-2.35</v>
+      </c>
+      <c r="Y57">
+        <v>12.13</v>
+      </c>
+      <c r="Z57">
+        <v>1.85</v>
+      </c>
       <c r="AC57" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5740,22 +6745,25 @@
       <c r="AG57">
         <v>5.723965644836426</v>
       </c>
-      <c r="AH57" t="s">
-        <v>203</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>300907</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>1.39</v>
@@ -5773,7 +6781,7 @@
         <v>33143.86</v>
       </c>
       <c r="J58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -5814,8 +6822,23 @@
       <c r="W58">
         <v>0.46</v>
       </c>
+      <c r="X58">
+        <v>1.76</v>
+      </c>
+      <c r="Y58">
+        <v>35.09</v>
+      </c>
+      <c r="Z58">
+        <v>4.78</v>
+      </c>
       <c r="AC58" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5823,22 +6846,25 @@
       <c r="AG58">
         <v>5.961753845214844</v>
       </c>
-      <c r="AH58" t="s">
-        <v>203</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>300930</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-7.14</v>
@@ -5856,7 +6882,7 @@
         <v>25104.62</v>
       </c>
       <c r="J59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5897,8 +6923,23 @@
       <c r="W59">
         <v>-0.64</v>
       </c>
+      <c r="X59">
+        <v>3.01</v>
+      </c>
+      <c r="Y59">
+        <v>35.77</v>
+      </c>
+      <c r="Z59">
+        <v>3.44</v>
+      </c>
       <c r="AC59" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5906,22 +6947,25 @@
       <c r="AG59">
         <v>3.235545873641968</v>
       </c>
-      <c r="AH59" t="s">
-        <v>203</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>300987</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-1.39</v>
@@ -5939,7 +6983,7 @@
         <v>52488.48</v>
       </c>
       <c r="J60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5980,8 +7024,23 @@
       <c r="W60">
         <v>-0.46</v>
       </c>
+      <c r="X60">
+        <v>-0.77</v>
+      </c>
+      <c r="Y60">
+        <v>22.2</v>
+      </c>
+      <c r="Z60">
+        <v>0.95</v>
+      </c>
       <c r="AC60" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5989,22 +7048,25 @@
       <c r="AG60">
         <v>0.7620676159858704</v>
       </c>
-      <c r="AH60" t="s">
-        <v>203</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301005</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>2.29</v>
@@ -6022,7 +7084,7 @@
         <v>89309.56</v>
       </c>
       <c r="J61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -6063,8 +7125,23 @@
       <c r="W61">
         <v>0.43</v>
       </c>
+      <c r="X61">
+        <v>-5.48</v>
+      </c>
+      <c r="Y61">
+        <v>43.74</v>
+      </c>
+      <c r="Z61">
+        <v>-0.91</v>
+      </c>
       <c r="AC61" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>1</v>
@@ -6072,22 +7149,25 @@
       <c r="AG61">
         <v>4.592479705810547</v>
       </c>
-      <c r="AH61" t="s">
-        <v>204</v>
+      <c r="AH61">
+        <v>1</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301007</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-0.05</v>
@@ -6105,7 +7185,7 @@
         <v>50345.28</v>
       </c>
       <c r="J62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K62">
         <v>5</v>
@@ -6146,8 +7226,23 @@
       <c r="W62">
         <v>-0.17</v>
       </c>
+      <c r="X62">
+        <v>-1.97</v>
+      </c>
+      <c r="Y62">
+        <v>40.19</v>
+      </c>
+      <c r="Z62">
+        <v>4.34</v>
+      </c>
       <c r="AC62" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>1</v>
@@ -6155,22 +7250,25 @@
       <c r="AG62">
         <v>4.795934677124023</v>
       </c>
-      <c r="AH62" t="s">
-        <v>203</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301038</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-10</v>
@@ -6188,7 +7286,7 @@
         <v>87446.11</v>
       </c>
       <c r="J63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -6229,8 +7327,23 @@
       <c r="W63">
         <v>0.15</v>
       </c>
+      <c r="X63">
+        <v>3.1</v>
+      </c>
+      <c r="Y63">
+        <v>33.28</v>
+      </c>
+      <c r="Z63">
+        <v>8.76</v>
+      </c>
       <c r="AC63" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>1</v>
@@ -6238,22 +7351,25 @@
       <c r="AG63">
         <v>6.081597328186035</v>
       </c>
-      <c r="AH63" t="s">
-        <v>203</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301095</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>0.8</v>
@@ -6271,7 +7387,7 @@
         <v>68225.73</v>
       </c>
       <c r="J64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6312,8 +7428,23 @@
       <c r="W64">
         <v>-0.67</v>
       </c>
+      <c r="X64">
+        <v>-0.1</v>
+      </c>
+      <c r="Y64">
+        <v>64.64</v>
+      </c>
+      <c r="Z64">
+        <v>2.59</v>
+      </c>
       <c r="AC64" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>1</v>
@@ -6321,22 +7452,25 @@
       <c r="AG64">
         <v>10.93937492370605</v>
       </c>
-      <c r="AH64" t="s">
-        <v>203</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301132</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-3.2</v>
@@ -6354,7 +7488,7 @@
         <v>48555.62</v>
       </c>
       <c r="J65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K65">
         <v>4</v>
@@ -6395,8 +7529,23 @@
       <c r="W65">
         <v>-1.06</v>
       </c>
+      <c r="X65">
+        <v>-2.35</v>
+      </c>
+      <c r="Y65">
+        <v>39.05</v>
+      </c>
+      <c r="Z65">
+        <v>0.93</v>
+      </c>
       <c r="AC65" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6404,22 +7553,25 @@
       <c r="AG65">
         <v>4.259819984436035</v>
       </c>
-      <c r="AH65" t="s">
-        <v>203</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301150</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>11.69</v>
@@ -6437,7 +7589,7 @@
         <v>81100.66</v>
       </c>
       <c r="J66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K66">
         <v>5</v>
@@ -6478,8 +7630,23 @@
       <c r="W66">
         <v>0.63</v>
       </c>
+      <c r="X66">
+        <v>-1.93</v>
+      </c>
+      <c r="Y66">
+        <v>29.51</v>
+      </c>
+      <c r="Z66">
+        <v>3.33</v>
+      </c>
       <c r="AC66" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6487,22 +7654,25 @@
       <c r="AG66">
         <v>5.977753639221191</v>
       </c>
-      <c r="AH66" t="s">
-        <v>203</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301151</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-3.55</v>
@@ -6520,7 +7690,7 @@
         <v>33458.54</v>
       </c>
       <c r="J67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K67">
         <v>7</v>
@@ -6561,8 +7731,23 @@
       <c r="W67">
         <v>0.57</v>
       </c>
+      <c r="X67">
+        <v>-5.23</v>
+      </c>
+      <c r="Y67">
+        <v>22.73</v>
+      </c>
+      <c r="Z67">
+        <v>-1.69</v>
+      </c>
       <c r="AC67" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6570,22 +7755,25 @@
       <c r="AG67">
         <v>7.23541784286499</v>
       </c>
-      <c r="AH67" t="s">
-        <v>203</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301183</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>5.94</v>
@@ -6603,7 +7791,7 @@
         <v>119309.12</v>
       </c>
       <c r="J68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K68">
         <v>12</v>
@@ -6644,8 +7832,23 @@
       <c r="W68">
         <v>3.19</v>
       </c>
+      <c r="X68">
+        <v>-6.56</v>
+      </c>
+      <c r="Y68">
+        <v>68.66</v>
+      </c>
+      <c r="Z68">
+        <v>-2.55</v>
+      </c>
       <c r="AC68" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>1</v>
@@ -6653,22 +7856,25 @@
       <c r="AG68">
         <v>7.069561004638672</v>
       </c>
-      <c r="AH68" t="s">
-        <v>204</v>
+      <c r="AH68">
+        <v>1</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301200</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>9.76</v>
@@ -6686,7 +7892,7 @@
         <v>113207.5</v>
       </c>
       <c r="J69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K69">
         <v>6</v>
@@ -6727,8 +7933,23 @@
       <c r="W69">
         <v>1.56</v>
       </c>
+      <c r="X69">
+        <v>-4.86</v>
+      </c>
+      <c r="Y69">
+        <v>78.88</v>
+      </c>
+      <c r="Z69">
+        <v>1.78</v>
+      </c>
       <c r="AC69" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6736,22 +7957,25 @@
       <c r="AG69">
         <v>2.913915395736694</v>
       </c>
-      <c r="AH69" t="s">
-        <v>203</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301217</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-2.07</v>
@@ -6769,7 +7993,7 @@
         <v>199584.5</v>
       </c>
       <c r="J70" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K70">
         <v>19</v>
@@ -6810,8 +8034,23 @@
       <c r="W70">
         <v>0.03</v>
       </c>
+      <c r="X70">
+        <v>-3.5</v>
+      </c>
+      <c r="Y70">
+        <v>27.09</v>
+      </c>
+      <c r="Z70">
+        <v>4.11</v>
+      </c>
       <c r="AC70" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6819,22 +8058,25 @@
       <c r="AG70">
         <v>3.484252452850342</v>
       </c>
-      <c r="AH70" t="s">
-        <v>203</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301235</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>6.06</v>
@@ -6852,7 +8094,7 @@
         <v>77013.57000000001</v>
       </c>
       <c r="J71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -6893,8 +8135,23 @@
       <c r="W71">
         <v>0.58</v>
       </c>
+      <c r="X71">
+        <v>-5.97</v>
+      </c>
+      <c r="Y71">
+        <v>33.7</v>
+      </c>
+      <c r="Z71">
+        <v>-4.26</v>
+      </c>
       <c r="AC71" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6902,22 +8159,25 @@
       <c r="AG71">
         <v>6.097414016723633</v>
       </c>
-      <c r="AH71" t="s">
-        <v>203</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301285</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-2.92</v>
@@ -6935,7 +8195,7 @@
         <v>50613.46</v>
       </c>
       <c r="J72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K72">
         <v>4</v>
@@ -6976,8 +8236,23 @@
       <c r="W72">
         <v>-0.08</v>
       </c>
+      <c r="X72">
+        <v>3.63</v>
+      </c>
+      <c r="Y72">
+        <v>42.71</v>
+      </c>
+      <c r="Z72">
+        <v>5.46</v>
+      </c>
       <c r="AC72" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6985,22 +8260,25 @@
       <c r="AG72">
         <v>3.513888835906982</v>
       </c>
-      <c r="AH72" t="s">
-        <v>203</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301306</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-4.09</v>
@@ -7018,7 +8296,7 @@
         <v>53671.46</v>
       </c>
       <c r="J73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K73">
         <v>7</v>
@@ -7059,8 +8337,23 @@
       <c r="W73">
         <v>-0.41</v>
       </c>
+      <c r="X73">
+        <v>1.61</v>
+      </c>
+      <c r="Y73">
+        <v>65.23999999999999</v>
+      </c>
+      <c r="Z73">
+        <v>4.99</v>
+      </c>
       <c r="AC73" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7068,22 +8361,25 @@
       <c r="AG73">
         <v>1.611981868743896</v>
       </c>
-      <c r="AH73" t="s">
-        <v>203</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301345</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-2.23</v>
@@ -7101,7 +8397,7 @@
         <v>54243.4</v>
       </c>
       <c r="J74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K74">
         <v>6</v>
@@ -7142,8 +8438,23 @@
       <c r="W74">
         <v>-0.23</v>
       </c>
+      <c r="X74">
+        <v>0.11</v>
+      </c>
+      <c r="Y74">
+        <v>162.5</v>
+      </c>
+      <c r="Z74">
+        <v>3.41</v>
+      </c>
       <c r="AC74" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7151,22 +8462,25 @@
       <c r="AG74">
         <v>4.272989273071289</v>
       </c>
-      <c r="AH74" t="s">
-        <v>203</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301357</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>17.22</v>
@@ -7184,7 +8498,7 @@
         <v>148245.59</v>
       </c>
       <c r="J75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7225,8 +8539,23 @@
       <c r="W75">
         <v>2.21</v>
       </c>
+      <c r="X75">
+        <v>-7.09</v>
+      </c>
+      <c r="Y75">
+        <v>108</v>
+      </c>
+      <c r="Z75">
+        <v>4.91</v>
+      </c>
       <c r="AC75" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7234,22 +8563,25 @@
       <c r="AG75">
         <v>0.3244417011737823</v>
       </c>
-      <c r="AH75" t="s">
-        <v>203</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301372</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>2.32</v>
@@ -7267,7 +8599,7 @@
         <v>33237.16</v>
       </c>
       <c r="J76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -7308,8 +8640,23 @@
       <c r="W76">
         <v>1.17</v>
       </c>
+      <c r="X76">
+        <v>-9.539999999999999</v>
+      </c>
+      <c r="Y76">
+        <v>29.49</v>
+      </c>
+      <c r="Z76">
+        <v>-2.99</v>
+      </c>
       <c r="AC76" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7317,22 +8664,25 @@
       <c r="AG76">
         <v>3.256918907165527</v>
       </c>
-      <c r="AH76" t="s">
-        <v>203</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301377</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>-1.38</v>
@@ -7350,7 +8700,7 @@
         <v>71352.58</v>
       </c>
       <c r="J77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K77">
         <v>13</v>
@@ -7391,8 +8741,23 @@
       <c r="W77">
         <v>-0.74</v>
       </c>
+      <c r="X77">
+        <v>-2.11</v>
+      </c>
+      <c r="Y77">
+        <v>53.31</v>
+      </c>
+      <c r="Z77">
+        <v>1.14</v>
+      </c>
       <c r="AC77" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7400,22 +8765,25 @@
       <c r="AG77">
         <v>1.975664615631104</v>
       </c>
-      <c r="AH77" t="s">
-        <v>203</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301389</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>9.109999999999999</v>
@@ -7433,7 +8801,7 @@
         <v>114870.39</v>
       </c>
       <c r="J78" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K78">
         <v>18</v>
@@ -7474,8 +8842,23 @@
       <c r="W78">
         <v>2.05</v>
       </c>
+      <c r="X78">
+        <v>12.06</v>
+      </c>
+      <c r="Y78">
+        <v>45.88</v>
+      </c>
+      <c r="Z78">
+        <v>19.29</v>
+      </c>
       <c r="AC78" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>1</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7483,22 +8866,25 @@
       <c r="AG78">
         <v>0.8179872035980225</v>
       </c>
-      <c r="AH78" t="s">
-        <v>203</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301392</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>-4.58</v>
@@ -7516,7 +8902,7 @@
         <v>48121.32</v>
       </c>
       <c r="J79" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K79">
         <v>3</v>
@@ -7557,8 +8943,23 @@
       <c r="W79">
         <v>-0.57</v>
       </c>
+      <c r="X79">
+        <v>-4.39</v>
+      </c>
+      <c r="Y79">
+        <v>159.98</v>
+      </c>
+      <c r="Z79">
+        <v>0.82</v>
+      </c>
       <c r="AC79" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7566,22 +8967,25 @@
       <c r="AG79">
         <v>3.925124645233154</v>
       </c>
-      <c r="AH79" t="s">
-        <v>203</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301393</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>4.86</v>
@@ -7599,7 +9003,7 @@
         <v>43747.38</v>
       </c>
       <c r="J80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -7640,8 +9044,23 @@
       <c r="W80">
         <v>0.3</v>
       </c>
+      <c r="X80">
+        <v>-4.28</v>
+      </c>
+      <c r="Y80">
+        <v>63.8</v>
+      </c>
+      <c r="Z80">
+        <v>3.42</v>
+      </c>
       <c r="AC80" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7649,22 +9068,25 @@
       <c r="AG80">
         <v>2.546696662902832</v>
       </c>
-      <c r="AH80" t="s">
-        <v>203</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>301421</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>-3.68</v>
@@ -7682,7 +9104,7 @@
         <v>57019.03</v>
       </c>
       <c r="J81" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K81">
         <v>29</v>
@@ -7723,8 +9145,23 @@
       <c r="W81">
         <v>-1.48</v>
       </c>
+      <c r="X81">
+        <v>-1.56</v>
+      </c>
+      <c r="Y81">
+        <v>75.8</v>
+      </c>
+      <c r="Z81">
+        <v>0.77</v>
+      </c>
       <c r="AC81" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7732,22 +9169,25 @@
       <c r="AG81">
         <v>5.172951221466064</v>
       </c>
-      <c r="AH81" t="s">
-        <v>203</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>301489</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>20</v>
@@ -7765,7 +9205,7 @@
         <v>66720.31</v>
       </c>
       <c r="J82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -7806,8 +9246,23 @@
       <c r="W82">
         <v>1.34</v>
       </c>
+      <c r="X82">
+        <v>5.17</v>
+      </c>
+      <c r="Y82">
+        <v>112.97</v>
+      </c>
+      <c r="Z82">
+        <v>8.98</v>
+      </c>
       <c r="AC82" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD82">
+        <v>1</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
       </c>
       <c r="AF82">
         <v>1</v>
@@ -7815,22 +9270,25 @@
       <c r="AG82">
         <v>16.55340003967285</v>
       </c>
-      <c r="AH82" t="s">
-        <v>204</v>
+      <c r="AH82">
+        <v>1</v>
+      </c>
+      <c r="AI82">
+        <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>301511</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>1.5</v>
@@ -7848,7 +9306,7 @@
         <v>297704.14</v>
       </c>
       <c r="J83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K83">
         <v>28</v>
@@ -7889,8 +9347,23 @@
       <c r="W83">
         <v>1.09</v>
       </c>
+      <c r="X83">
+        <v>-0.5</v>
+      </c>
+      <c r="Y83">
+        <v>38.61</v>
+      </c>
+      <c r="Z83">
+        <v>7.46</v>
+      </c>
       <c r="AC83" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>1</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7898,22 +9371,25 @@
       <c r="AG83">
         <v>5.226159572601318</v>
       </c>
-      <c r="AH83" t="s">
-        <v>203</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>301526</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -7931,7 +9407,7 @@
         <v>68439.83</v>
       </c>
       <c r="J84" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K84">
         <v>18</v>
@@ -7972,8 +9448,23 @@
       <c r="W84">
         <v>0.27</v>
       </c>
+      <c r="X84">
+        <v>-1.84</v>
+      </c>
+      <c r="Y84">
+        <v>5</v>
+      </c>
+      <c r="Z84">
+        <v>2.46</v>
+      </c>
       <c r="AC84" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7981,22 +9472,25 @@
       <c r="AG84">
         <v>5.503077030181885</v>
       </c>
-      <c r="AH84" t="s">
-        <v>203</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>301529</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>6.27</v>
@@ -8014,7 +9508,7 @@
         <v>37924.02</v>
       </c>
       <c r="J85" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K85">
         <v>9</v>
@@ -8055,8 +9549,23 @@
       <c r="W85">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X85">
+        <v>0.9</v>
+      </c>
+      <c r="Y85">
+        <v>61.8</v>
+      </c>
+      <c r="Z85">
+        <v>1.34</v>
+      </c>
       <c r="AC85" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>1</v>
@@ -8064,22 +9573,25 @@
       <c r="AG85">
         <v>5.499277114868164</v>
       </c>
-      <c r="AH85" t="s">
-        <v>203</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>301580</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>-2.63</v>
@@ -8097,7 +9609,7 @@
         <v>28658.61</v>
       </c>
       <c r="J86" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K86">
         <v>4</v>
@@ -8138,8 +9650,23 @@
       <c r="W86">
         <v>-0.47</v>
       </c>
+      <c r="X86">
+        <v>-2.54</v>
+      </c>
+      <c r="Y86">
+        <v>50.5</v>
+      </c>
+      <c r="Z86">
+        <v>1.69</v>
+      </c>
       <c r="AC86" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8147,22 +9674,25 @@
       <c r="AG86">
         <v>2.583756923675537</v>
       </c>
-      <c r="AH86" t="s">
-        <v>203</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>301626</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>0.47</v>
@@ -8180,7 +9710,7 @@
         <v>34513.27</v>
       </c>
       <c r="J87" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K87">
         <v>8</v>
@@ -8221,8 +9751,23 @@
       <c r="W87">
         <v>-0.15</v>
       </c>
+      <c r="X87">
+        <v>2.9</v>
+      </c>
+      <c r="Y87">
+        <v>146.81</v>
+      </c>
+      <c r="Z87">
+        <v>4.19</v>
+      </c>
       <c r="AC87" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>1</v>
@@ -8230,22 +9775,25 @@
       <c r="AG87">
         <v>2.75685453414917</v>
       </c>
-      <c r="AH87" t="s">
-        <v>203</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688020</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>2.12</v>
@@ -8263,7 +9811,7 @@
         <v>74033.45</v>
       </c>
       <c r="J88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -8304,8 +9852,23 @@
       <c r="W88">
         <v>-0.02</v>
       </c>
+      <c r="X88">
+        <v>-5.23</v>
+      </c>
+      <c r="Y88">
+        <v>56.5</v>
+      </c>
+      <c r="Z88">
+        <v>-0.49</v>
+      </c>
       <c r="AC88" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8313,22 +9876,25 @@
       <c r="AG88">
         <v>1.93020761013031</v>
       </c>
-      <c r="AH88" t="s">
-        <v>203</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688062</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>3.88</v>
@@ -8346,7 +9912,7 @@
         <v>82189.08</v>
       </c>
       <c r="J89" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K89">
         <v>3</v>
@@ -8387,8 +9953,23 @@
       <c r="W89">
         <v>-0.7</v>
       </c>
+      <c r="X89">
+        <v>6.23</v>
+      </c>
+      <c r="Y89">
+        <v>38.14</v>
+      </c>
+      <c r="Z89">
+        <v>10.52</v>
+      </c>
       <c r="AC89" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD89">
+        <v>1</v>
+      </c>
+      <c r="AE89">
+        <v>1</v>
       </c>
       <c r="AF89">
         <v>1</v>
@@ -8396,22 +9977,25 @@
       <c r="AG89">
         <v>3.187623023986816</v>
       </c>
-      <c r="AH89" t="s">
-        <v>203</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688110</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>19.99</v>
@@ -8429,7 +10013,7 @@
         <v>199972.22</v>
       </c>
       <c r="J90" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K90">
         <v>3</v>
@@ -8470,8 +10054,23 @@
       <c r="W90">
         <v>0.46</v>
       </c>
+      <c r="X90">
+        <v>-11.37</v>
+      </c>
+      <c r="Y90">
+        <v>69.89</v>
+      </c>
+      <c r="Z90">
+        <v>7.92</v>
+      </c>
       <c r="AC90" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD90">
+        <v>1</v>
+      </c>
+      <c r="AE90">
+        <v>1</v>
       </c>
       <c r="AF90">
         <v>1</v>
@@ -8479,22 +10078,25 @@
       <c r="AG90">
         <v>4.00437593460083</v>
       </c>
-      <c r="AH90" t="s">
-        <v>204</v>
+      <c r="AH90">
+        <v>1</v>
+      </c>
+      <c r="AI90">
+        <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688189</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>20.03</v>
@@ -8512,7 +10114,7 @@
         <v>55927.35</v>
       </c>
       <c r="J91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -8553,8 +10155,23 @@
       <c r="W91">
         <v>0.49</v>
       </c>
+      <c r="X91">
+        <v>2.51</v>
+      </c>
+      <c r="Y91">
+        <v>18.78</v>
+      </c>
+      <c r="Z91">
+        <v>9.57</v>
+      </c>
       <c r="AC91" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD91">
+        <v>1</v>
+      </c>
+      <c r="AE91">
+        <v>1</v>
       </c>
       <c r="AF91">
         <v>1</v>
@@ -8562,22 +10179,25 @@
       <c r="AG91">
         <v>19.69612503051758</v>
       </c>
-      <c r="AH91" t="s">
-        <v>204</v>
+      <c r="AH91">
+        <v>1</v>
+      </c>
+      <c r="AI91">
+        <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688202</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>1.04</v>
@@ -8595,7 +10215,7 @@
         <v>51841.63</v>
       </c>
       <c r="J92" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K92">
         <v>18</v>
@@ -8636,8 +10256,23 @@
       <c r="W92">
         <v>-0.47</v>
       </c>
+      <c r="X92">
+        <v>-2.84</v>
+      </c>
+      <c r="Y92">
+        <v>64.8</v>
+      </c>
+      <c r="Z92">
+        <v>2.21</v>
+      </c>
       <c r="AC92" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8645,22 +10280,25 @@
       <c r="AG92">
         <v>3.204750776290894</v>
       </c>
-      <c r="AH92" t="s">
-        <v>203</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688210</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>-1.19</v>
@@ -8678,7 +10316,7 @@
         <v>28275.74</v>
       </c>
       <c r="J93" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K93">
         <v>6</v>
@@ -8719,8 +10357,23 @@
       <c r="W93">
         <v>-0.38</v>
       </c>
+      <c r="X93">
+        <v>6.47</v>
+      </c>
+      <c r="Y93">
+        <v>37.55</v>
+      </c>
+      <c r="Z93">
+        <v>10.44</v>
+      </c>
       <c r="AC93" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>1</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8728,22 +10381,25 @@
       <c r="AG93">
         <v>1.676188349723816</v>
       </c>
-      <c r="AH93" t="s">
-        <v>203</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688221</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>-3.38</v>
@@ -8761,7 +10417,7 @@
         <v>66626.84</v>
       </c>
       <c r="J94" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K94">
         <v>4</v>
@@ -8802,8 +10458,23 @@
       <c r="W94">
         <v>-0.93</v>
       </c>
+      <c r="X94">
+        <v>0.28</v>
+      </c>
+      <c r="Y94">
+        <v>23.3</v>
+      </c>
+      <c r="Z94">
+        <v>8.52</v>
+      </c>
       <c r="AC94" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>1</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8811,22 +10482,25 @@
       <c r="AG94">
         <v>5.00201940536499</v>
       </c>
-      <c r="AH94" t="s">
-        <v>203</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688222</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>-0.89</v>
@@ -8844,7 +10518,7 @@
         <v>73032.84</v>
       </c>
       <c r="J95" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K95">
         <v>10</v>
@@ -8885,8 +10559,23 @@
       <c r="W95">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X95">
+        <v>1.66</v>
+      </c>
+      <c r="Y95">
+        <v>25.3</v>
+      </c>
+      <c r="Z95">
+        <v>7.94</v>
+      </c>
       <c r="AC95" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>1</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8894,22 +10583,25 @@
       <c r="AG95">
         <v>3.325518608093262</v>
       </c>
-      <c r="AH95" t="s">
-        <v>203</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688258</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>2.72</v>
@@ -8927,7 +10619,7 @@
         <v>61934.67</v>
       </c>
       <c r="J96" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -8968,8 +10660,23 @@
       <c r="W96">
         <v>-0.39</v>
       </c>
+      <c r="X96">
+        <v>5.52</v>
+      </c>
+      <c r="Y96">
+        <v>69.8</v>
+      </c>
+      <c r="Z96">
+        <v>9.44</v>
+      </c>
       <c r="AC96" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>1</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -8977,22 +10684,25 @@
       <c r="AG96">
         <v>6.292285442352295</v>
       </c>
-      <c r="AH96" t="s">
-        <v>203</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688321</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>0.27</v>
@@ -9010,7 +10720,7 @@
         <v>89300.58</v>
       </c>
       <c r="J97" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K97">
         <v>23</v>
@@ -9051,8 +10761,23 @@
       <c r="W97">
         <v>0.4</v>
       </c>
+      <c r="X97">
+        <v>0.54</v>
+      </c>
+      <c r="Y97">
+        <v>39.22</v>
+      </c>
+      <c r="Z97">
+        <v>5.29</v>
+      </c>
       <c r="AC97" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9060,22 +10785,25 @@
       <c r="AG97">
         <v>2.497476816177368</v>
       </c>
-      <c r="AH97" t="s">
-        <v>203</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688499</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>-2.95</v>
@@ -9093,7 +10821,7 @@
         <v>76979.50999999999</v>
       </c>
       <c r="J98" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K98">
         <v>33</v>
@@ -9134,8 +10862,23 @@
       <c r="W98">
         <v>-1.47</v>
       </c>
+      <c r="X98">
+        <v>-3.38</v>
+      </c>
+      <c r="Y98">
+        <v>52.51</v>
+      </c>
+      <c r="Z98">
+        <v>0.42</v>
+      </c>
       <c r="AC98" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9143,22 +10886,25 @@
       <c r="AG98">
         <v>3.009553670883179</v>
       </c>
-      <c r="AH98" t="s">
-        <v>203</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>688502</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>-4.51</v>
@@ -9176,7 +10922,7 @@
         <v>58000.88</v>
       </c>
       <c r="J99" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K99">
         <v>4</v>
@@ -9217,8 +10963,23 @@
       <c r="W99">
         <v>-1.05</v>
       </c>
+      <c r="X99">
+        <v>-1.77</v>
+      </c>
+      <c r="Y99">
+        <v>333.89</v>
+      </c>
+      <c r="Z99">
+        <v>0.42</v>
+      </c>
       <c r="AC99" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9226,22 +10987,25 @@
       <c r="AG99">
         <v>2.573508024215698</v>
       </c>
-      <c r="AH99" t="s">
-        <v>203</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>688556</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>-1.32</v>
@@ -9259,7 +11023,7 @@
         <v>52070.59</v>
       </c>
       <c r="J100" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K100">
         <v>4</v>
@@ -9300,8 +11064,23 @@
       <c r="W100">
         <v>-0.5</v>
       </c>
+      <c r="X100">
+        <v>1.91</v>
+      </c>
+      <c r="Y100">
+        <v>11.29</v>
+      </c>
+      <c r="Z100">
+        <v>7.93</v>
+      </c>
       <c r="AC100" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>1</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9309,22 +11088,25 @@
       <c r="AG100">
         <v>1.677828907966614</v>
       </c>
-      <c r="AH100" t="s">
-        <v>203</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>688603</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>1.97</v>
@@ -9342,7 +11124,7 @@
         <v>65933.53</v>
       </c>
       <c r="J101" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -9383,8 +11165,23 @@
       <c r="W101">
         <v>-1.14</v>
       </c>
+      <c r="X101">
+        <v>2.65</v>
+      </c>
+      <c r="Y101">
+        <v>67</v>
+      </c>
+      <c r="Z101">
+        <v>2.67</v>
+      </c>
       <c r="AC101" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
       </c>
       <c r="AF101">
         <v>1</v>
@@ -9392,22 +11189,25 @@
       <c r="AG101">
         <v>6.203194141387939</v>
       </c>
-      <c r="AH101" t="s">
-        <v>203</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>688630</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102">
         <v>-0.5600000000000001</v>
@@ -9425,7 +11225,7 @@
         <v>199653.27</v>
       </c>
       <c r="J102" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K102">
         <v>6</v>
@@ -9466,8 +11266,23 @@
       <c r="W102">
         <v>-0.77</v>
       </c>
+      <c r="X102">
+        <v>-4.3</v>
+      </c>
+      <c r="Y102">
+        <v>123.99</v>
+      </c>
+      <c r="Z102">
+        <v>0.85</v>
+      </c>
       <c r="AC102" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -9475,22 +11290,25 @@
       <c r="AG102">
         <v>1.064404726028442</v>
       </c>
-      <c r="AH102" t="s">
-        <v>203</v>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>688660</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103">
         <v>-16.61</v>
@@ -9508,7 +11326,7 @@
         <v>172085.67</v>
       </c>
       <c r="J103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K103">
         <v>7</v>
@@ -9549,8 +11367,23 @@
       <c r="W103">
         <v>-1.75</v>
       </c>
+      <c r="X103">
+        <v>4.98</v>
+      </c>
+      <c r="Y103">
+        <v>15.33</v>
+      </c>
+      <c r="Z103">
+        <v>9.029999999999999</v>
+      </c>
       <c r="AC103" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>1</v>
       </c>
       <c r="AF103">
         <v>0</v>
@@ -9558,22 +11391,25 @@
       <c r="AG103">
         <v>5.17835807800293</v>
       </c>
-      <c r="AH103" t="s">
-        <v>203</v>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C104">
         <v>688668</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104">
         <v>10.24</v>
@@ -9591,7 +11427,7 @@
         <v>147584.5</v>
       </c>
       <c r="J104" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K104">
         <v>11</v>
@@ -9632,8 +11468,23 @@
       <c r="W104">
         <v>-0.51</v>
       </c>
+      <c r="X104">
+        <v>-6.13</v>
+      </c>
+      <c r="Y104">
+        <v>94.38</v>
+      </c>
+      <c r="Z104">
+        <v>-1.58</v>
+      </c>
       <c r="AC104" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
       </c>
       <c r="AF104">
         <v>1</v>
@@ -9641,22 +11492,25 @@
       <c r="AG104">
         <v>4.043474197387695</v>
       </c>
-      <c r="AH104" t="s">
-        <v>203</v>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C105">
         <v>688787</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E105">
         <v>-2.37</v>
@@ -9674,7 +11528,7 @@
         <v>55924.82</v>
       </c>
       <c r="J105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -9715,8 +11569,23 @@
       <c r="W105">
         <v>-0.12</v>
       </c>
+      <c r="X105">
+        <v>0.93</v>
+      </c>
+      <c r="Y105">
+        <v>138.8</v>
+      </c>
+      <c r="Z105">
+        <v>2.06</v>
+      </c>
       <c r="AC105" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
       </c>
       <c r="AF105">
         <v>1</v>
@@ -9724,8 +11593,11 @@
       <c r="AG105">
         <v>7.185791492462158</v>
       </c>
-      <c r="AH105" t="s">
-        <v>203</v>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
